--- a/105_Experiment_log.xlsx
+++ b/105_Experiment_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sulye/Documents/personal/nyp/105 Project/working/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA11BF-FF2D-5140-9C0E-2B1E94BC9218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6C37EE-D660-CA4C-9156-0CCC9C559594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="-19540" windowWidth="27160" windowHeight="16440" xr2:uid="{8D4A2101-3896-614D-807C-02DBA66BB8C1}"/>
   </bookViews>
@@ -143,12 +143,6 @@
     <t>Actions:</t>
   </si>
   <si>
-    <t>Combine 'loudness' and 'energy' by multiplication. 'loudness' and 'energy' featurers are highly correlated to each other (correlation = 0.76). Combine 'loudness' and 'energy' by multiplication</t>
-  </si>
-  <si>
-    <t>Combine 'danceability' and 'audio_valence' by multiplication. 'Danceability' and 'audio_valence' are correlated to each other (correlation = 0.32). Combine 'danceability' and 'audio_valence' by multiplication</t>
-  </si>
-  <si>
     <t>Perform VIF to reduce features. Base onf the VIF result, ['time_signature_0', 'time_signature_1', 'audio_mode_0', 'time_signature_3', 'audio_mode_1', 'key_3', 'key_2', 'key_1', 'key_0', 'time_signature_5', 'time_signature_4', 'key_6', 'key_7', 'key_8', 'key_9', 'key_10', 'key_11', 'key_4', 'key_5'] are removed</t>
   </si>
   <si>
@@ -210,6 +204,12 @@
   </si>
   <si>
     <t>Perform PCA in feature reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine 'loudness' and 'energy' into 'loudness_energy' by multiplication (loudness_energy = loudness x energy). 'loudness' and 'energy' featurers are highly correlated to each other (correlation = 0.76). </t>
+  </si>
+  <si>
+    <t>Combine 'danceability' and 'audio_valence' into 'danceability_av' feature by multiplication (Dancebility_av = 'danceability' x 'audio_valence'). 'Danceability' and 'audio_valence' are correlated to each other (correlation = 0.32).</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963AEFD9-AFBD-3840-83D9-D1D5143A53C3}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -771,28 +771,28 @@
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -808,15 +808,15 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1053,10 +1053,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1811,7 +1811,7 @@
         <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -1830,7 +1830,7 @@
         <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -1838,17 +1838,17 @@
         <v>34</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -2064,18 +2064,18 @@
         <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B117" s="15"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
